--- a/output/TopReleasesbyInclusion.xlsx
+++ b/output/TopReleasesbyInclusion.xlsx
@@ -32,10 +32,10 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Charli xcx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAT</t>
+    <t xml:space="preserve">Charli XCX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brat</t>
   </si>
   <si>
     <t xml:space="preserve">brat</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Waxahatchee, MJ Lenderman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Back to It</t>
+    <t xml:space="preserve">Waxahatchee (ft. MJ Lenderman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Back to it</t>
   </si>
   <si>
     <t xml:space="preserve">right back to it</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">YT</t>
   </si>
   <si>
-    <t xml:space="preserve">Black &amp; Tan</t>
+    <t xml:space="preserve">Black &amp;amp; Tan</t>
   </si>
   <si>
     <t xml:space="preserve">black and tan</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">36</t>
   </si>
   <si>
-    <t xml:space="preserve">Fimiguerrero, Len &amp; Lancey Foux</t>
+    <t xml:space="preserve">Fimiguerrero, Len &amp;amp; Lancey Foux</t>
   </si>
   <si>
     <t xml:space="preserve">Conglomerate</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">58</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMIN &amp; Slom</t>
+    <t xml:space="preserve">SUMIN &amp;amp; Slom</t>
   </si>
   <si>
     <t xml:space="preserve">MINISERIES 2</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">62</t>
   </si>
   <si>
-    <t xml:space="preserve">Joey Valence &amp; Brae</t>
+    <t xml:space="preserve">Joey Valence &amp;amp; Brae</t>
   </si>
   <si>
     <t xml:space="preserve">NO HANDS</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">94</t>
   </si>
   <si>
-    <t xml:space="preserve">Swoopy &amp; pradaaslife</t>
+    <t xml:space="preserve">Swoopy &amp;amp; pradaaslife</t>
   </si>
   <si>
     <t xml:space="preserve">Treasure Hunt 2</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">102</t>
   </si>
   <si>
-    <t xml:space="preserve">death's dynamic shroud &amp; galen tipton</t>
+    <t xml:space="preserve">death's dynamic shroud &amp;amp; galen tipton</t>
   </si>
   <si>
     <t xml:space="preserve">You Like Music</t>
